--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-30,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,89</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-17,93; -3,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-38,05; -22,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-20,73; -6,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-39,45; -26,59</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; -7,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,9; -26,24</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-14,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-39,5%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-15,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-38,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,06%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-22,72; -4,71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-48,08; -30,05</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-23,21; -8,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-44,54; -32,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,79; -9,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,38; -32,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -2,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,27; 27,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,42; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,48; -5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,07; 23,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; -4,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,05; -6,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,5; 23,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,74; -2,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,51; -4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,29; 49,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,46; 4,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,86; -8,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,73; 39,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,12; -6,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,91; -10,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,06; 40,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,14; -4,32</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,47; 20,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,16; 33,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,43; 32,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,33; 41,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 13,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,88; 24,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,63; 35,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 5,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,43; 50,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,67; 79,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 4,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,9; 86,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,65; 114,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 35,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,79; 59,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,62; 87,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; 12,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,58; -2,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; -21,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,94; -30,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 8,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,95; -14,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,41; -26,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 1,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,27; -19,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,44; -30,58</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,83%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; -4,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,25; -34,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,66; -50,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 15,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,36; -25,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,6; -44,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,75; 2,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,61; -32,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,67; -50,31</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,35; -5,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,16; 24,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,97; 30,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,89; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 19,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 24,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,22; -4,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,16; 19,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,1; 25,84</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,88%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,84%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,35; -9,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,97; 39,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,57; 49,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; 2,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 28,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 35,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,67; -6,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 29,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,37; 39,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,7</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,67</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 7,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 21,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,03; -15,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 19,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,3; 29,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,21; -11,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 11,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,85; 23,55</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,79; -14,99</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 13,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 39,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,13; -27,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,34; 38,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,27; 58,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,65; -22,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 22,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,92; 43,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,1; -27,7</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,14</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>40,82</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,89</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,4</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,85</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,26; 17,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,28; 40,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 17,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,43; 30,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,36; 45,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,46; 37,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,43; 22,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,88; 42,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,65; 29,09</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,34%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,5; 45,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,17; 103,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,66; 45,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,3; 91,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,87; 139,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,23; 114,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,2; 62,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,04; 114,35</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,79; 76,62</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,92; 16,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,78; 16,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,51; 9,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 7,75</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 12,29</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 8,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,39; 10,86</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,12; 12,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 7,75</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 23,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,16; 22,92</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 13,6</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 10,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,03; 16,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 11,17</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,95; 14,38</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,13; 16,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 10,28</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,06</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 3,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,95; 15,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -1,78</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 7,91</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,68; 17,03</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 2,32</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,79; 5,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,37; 15,65</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; -0,88</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,12%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 5,88</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 26,05</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,13; -3,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,19; 13,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 3,85</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 8,43</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,85; 26,0</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; -1,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-30,61</t>
+          <t>-31,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-33,48</t>
+          <t>-33,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-31,89</t>
+          <t>-32,52</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; -4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,05; -22,5</t>
+          <t>-39,51; -22,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; -1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,45; -26,59</t>
+          <t>-39,28; -26,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; -5,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,9; -26,24</t>
+          <t>-37,59; -26,28</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-39,5%</t>
+          <t>-40,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,94%</t>
+          <t>-38,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,06%</t>
+          <t>-39,84%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,62; -5,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,08; -30,05</t>
+          <t>-50,08; -30,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; -2,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,54; -32,25</t>
+          <t>-44,28; -31,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; -7,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -32,92</t>
+          <t>-45,5; -33,01</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-10,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-7,3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 2,94</t>
+          <t>-11,76; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,73; -4,19</t>
+          <t>-16,61; -4,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -2,59</t>
+          <t>-11,88; -2,62</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,56%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>-11,88%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 4,59</t>
+          <t>-18,87; 4,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -6,88</t>
+          <t>-25,06; -6,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -4,32</t>
+          <t>-18,6; -4,39</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 1,72</t>
+          <t>-14,96; 1,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 13,19</t>
+          <t>-0,21; 13,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,2</t>
+          <t>-5,0; 4,98</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 4,36</t>
+          <t>-29,03; 3,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 35,44</t>
+          <t>-0,59; 34,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 12,56</t>
+          <t>-11,0; 12,05</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-17,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-38,54</t>
+          <t>-39,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-33,23</t>
+          <t>-37,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-11,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-35,66</t>
+          <t>-38,64</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -2,81</t>
+          <t>-25,03; -9,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-45,94; -30,93</t>
+          <t>-46,48; -31,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 8,74</t>
+          <t>-12,62; 1,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-40,41; -26,24</t>
+          <t>-49,26; -29,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,26</t>
+          <t>-16,66; -6,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-40,44; -30,58</t>
+          <t>-46,38; -32,98</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>-27,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-60,19%</t>
+          <t>-61,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,01%</t>
+          <t>-61,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-56,83%</t>
+          <t>-61,57%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -4,65</t>
+          <t>-37,25; -15,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,66; -50,5</t>
+          <t>-69,61; -51,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 15,44</t>
+          <t>-19,96; 2,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -44,87</t>
+          <t>-77,04; -50,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 2,0</t>
+          <t>-25,74; -10,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,67; -50,31</t>
+          <t>-72,3; -54,79</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,19</t>
+          <t>23,2</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,95</t>
+          <t>20,02</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,97; 30,87</t>
+          <t>14,92; 30,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,22; 24,07</t>
+          <t>10,47; 24,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,1; 25,84</t>
+          <t>15,28; 25,96</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>28,05%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>20,57; 49,18</t>
+          <t>20,49; 49,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,99; 35,51</t>
+          <t>13,24; 35,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,37; 39,0</t>
+          <t>20,42; 39,08</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-22,68</t>
+          <t>-22,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>-18,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-20,67</t>
+          <t>-20,8</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-30,03; -15,05</t>
+          <t>-30,35; -15,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,21; -11,55</t>
+          <t>-26,2; -11,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-25,79; -14,99</t>
+          <t>-25,92; -15,14</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-38,49%</t>
+          <t>-39,03%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-33,79%</t>
+          <t>-33,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-36,19%</t>
+          <t>-36,42%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,13; -27,42</t>
+          <t>-48,8; -28,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,65; -22,62</t>
+          <t>-43,58; -22,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,1; -27,7</t>
+          <t>-43,18; -27,73</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,86</t>
+          <t>27,85</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>17,85</t>
+          <t>20,76</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,8; 17,92</t>
+          <t>5,82; 18,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,46; 37,32</t>
+          <t>14,6; 45,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,65; 29,09</t>
+          <t>13,12; 36,66</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>52,75%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,66; 45,03</t>
+          <t>12,67; 45,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,23; 114,17</t>
+          <t>39,88; 140,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>30,79; 76,62</t>
+          <t>32,61; 99,84</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-5,86</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 9,78</t>
+          <t>-46,18; 9,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,59</t>
+          <t>0,73; 8,68</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 7,75</t>
+          <t>-34,1; 7,34</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>-7,68%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 13,6</t>
+          <t>-62,09; 13,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,17</t>
+          <t>1,02; 11,27</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 10,28</t>
+          <t>-44,92; 9,66</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-5,78</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -1,78</t>
+          <t>-21,71; -3,98</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,32</t>
+          <t>-7,01; 5,47</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,88</t>
+          <t>-11,8; -2,11</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-14,51%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>-9,48%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -3,0</t>
+          <t>-35,55; -6,56</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 3,85</t>
+          <t>-11,25; 9,12</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -1,46</t>
+          <t>-19,32; -3,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; -4,06</t>
+          <t>-18,99; -3,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,93; -3,55</t>
+          <t>-18,92; -3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,51; -22,47</t>
+          <t>-40,14; -23,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -1,68</t>
+          <t>-15,72; -2,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -6,82</t>
+          <t>-20,5; -7,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,28; -26,11</t>
+          <t>-39,74; -26,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,09; -5,6</t>
+          <t>-15,59; -5,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -7,78</t>
+          <t>-17,52; -7,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,59; -26,28</t>
+          <t>-37,68; -26,39</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -5,53</t>
+          <t>-23,86; -4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -4,71</t>
+          <t>-23,68; -4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,08; -30,7</t>
+          <t>-50,67; -31,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -2,06</t>
+          <t>-17,97; -2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,21; -8,28</t>
+          <t>-23,37; -8,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,28; -31,41</t>
+          <t>-45,01; -31,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,08; -7,14</t>
+          <t>-18,59; -6,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,79; -9,71</t>
+          <t>-21,13; -9,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; -33,01</t>
+          <t>-45,32; -33,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -2,28</t>
+          <t>-15,46; -2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 27,24</t>
+          <t>15,92; 26,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 2,66</t>
+          <t>-11,09; 2,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -5,21</t>
+          <t>-17,46; -4,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 23,39</t>
+          <t>12,62; 23,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -4,08</t>
+          <t>-16,25; -4,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -6,08</t>
+          <t>-14,99; -5,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 23,72</t>
+          <t>15,38; 23,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -2,62</t>
+          <t>-11,94; -3,03</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -4,11</t>
+          <t>-24,63; -4,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,29; 49,37</t>
+          <t>25,61; 48,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 4,66</t>
+          <t>-18,0; 4,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -8,66</t>
+          <t>-26,58; -8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 39,37</t>
+          <t>19,02; 39,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -6,92</t>
+          <t>-24,69; -7,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,91; -10,31</t>
+          <t>-23,51; -9,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,06; 40,65</t>
+          <t>24,22; 40,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -4,39</t>
+          <t>-18,91; -5,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 20,59</t>
+          <t>3,84; 19,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,16; 33,29</t>
+          <t>18,63; 32,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 1,23</t>
+          <t>-14,16; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,43; 32,54</t>
+          <t>17,97; 33,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,33; 41,98</t>
+          <t>27,35; 41,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 13,16</t>
+          <t>-0,64; 13,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,88; 24,29</t>
+          <t>13,23; 24,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 35,44</t>
+          <t>25,16; 35,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,98</t>
+          <t>-5,53; 5,31</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,43; 50,13</t>
+          <t>7,65; 44,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,67; 79,76</t>
+          <t>36,14; 77,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 3,77</t>
+          <t>-28,32; 5,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,9; 86,86</t>
+          <t>39,27; 92,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,65; 114,15</t>
+          <t>60,61; 113,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 34,98</t>
+          <t>-1,3; 36,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,79; 59,11</t>
+          <t>26,43; 58,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,62; 87,6</t>
+          <t>53,42; 87,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 12,05</t>
+          <t>-11,53; 12,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -9,34</t>
+          <t>-24,96; -10,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,49; -21,27</t>
+          <t>-35,04; -20,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,48; -31,66</t>
+          <t>-46,18; -31,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 1,25</t>
+          <t>-13,1; 0,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -14,99</t>
+          <t>-29,06; -15,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-49,26; -29,63</t>
+          <t>-48,36; -30,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -6,55</t>
+          <t>-17,04; -6,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-30,27; -19,58</t>
+          <t>-30,56; -20,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -32,98</t>
+          <t>-45,95; -33,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,25; -15,67</t>
+          <t>-37,67; -17,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,25; -34,66</t>
+          <t>-52,39; -33,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,61; -51,51</t>
+          <t>-70,26; -51,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 2,03</t>
+          <t>-20,2; 1,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,36; -25,97</t>
+          <t>-45,01; -26,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,04; -50,08</t>
+          <t>-76,24; -50,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,74; -10,98</t>
+          <t>-26,09; -11,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,61; -32,43</t>
+          <t>-47,38; -33,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,3; -54,79</t>
+          <t>-72,32; -54,25</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,35; -5,81</t>
+          <t>-25,33; -5,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,16; 24,87</t>
+          <t>8,62; 24,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,92; 30,74</t>
+          <t>15,29; 31,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 1,79</t>
+          <t>-15,98; 1,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 19,43</t>
+          <t>3,89; 19,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,47; 24,3</t>
+          <t>10,0; 23,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -4,24</t>
+          <t>-17,38; -4,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,16; 19,79</t>
+          <t>8,58; 19,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,28; 25,96</t>
+          <t>14,97; 24,93</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,35; -9,42</t>
+          <t>-34,75; -8,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,97; 39,62</t>
+          <t>11,85; 39,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>20,49; 49,01</t>
+          <t>20,69; 50,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 2,52</t>
+          <t>-20,72; 1,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,38; 28,07</t>
+          <t>4,91; 28,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,24; 35,48</t>
+          <t>12,78; 34,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -6,28</t>
+          <t>-23,48; -6,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,14; 29,33</t>
+          <t>11,57; 29,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,42; 39,08</t>
+          <t>19,79; 37,17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 7,5</t>
+          <t>-8,39; 8,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,3; 21,37</t>
+          <t>5,56; 21,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -15,41</t>
+          <t>-30,54; -15,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,29; 19,72</t>
+          <t>3,8; 20,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,3; 29,31</t>
+          <t>13,61; 28,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,2; -11,5</t>
+          <t>-25,97; -10,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,97</t>
+          <t>-0,01; 12,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,85; 23,55</t>
+          <t>12,02; 23,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -15,14</t>
+          <t>-25,92; -15,33</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 13,46</t>
+          <t>-13,46; 15,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8,57; 39,06</t>
+          <t>8,71; 39,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,8; -28,18</t>
+          <t>-48,08; -27,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,34; 38,16</t>
+          <t>6,61; 40,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,27; 58,21</t>
+          <t>22,29; 56,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,58; -22,55</t>
+          <t>-43,65; -21,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,11; 22,39</t>
+          <t>0,07; 22,71</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,92; 43,86</t>
+          <t>19,9; 43,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,18; -27,73</t>
+          <t>-43,31; -28,33</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,26; 17,99</t>
+          <t>6,7; 18,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>30,28; 40,76</t>
+          <t>30,57; 41,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,82; 18,08</t>
+          <t>5,97; 18,25</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19,43; 30,09</t>
+          <t>19,27; 30,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>35,36; 45,58</t>
+          <t>35,51; 45,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,6; 45,09</t>
+          <t>14,12; 47,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,97</t>
+          <t>14,84; 22,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>34,88; 42,21</t>
+          <t>34,67; 41,84</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,12; 36,66</t>
+          <t>12,67; 35,95</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>13,5; 45,77</t>
+          <t>14,86; 47,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>65,17; 103,72</t>
+          <t>66,36; 103,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12,67; 45,2</t>
+          <t>13,4; 45,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>49,3; 91,46</t>
+          <t>49,08; 92,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>89,87; 139,39</t>
+          <t>89,75; 139,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,88; 140,29</t>
+          <t>37,79; 141,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>37,2; 62,07</t>
+          <t>36,1; 61,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>84,04; 114,35</t>
+          <t>83,03; 112,99</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>32,61; 99,84</t>
+          <t>31,34; 94,66</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>8,92; 16,98</t>
+          <t>8,63; 17,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,78; 16,18</t>
+          <t>7,23; 15,91</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 9,48</t>
+          <t>-46,15; 9,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 7,75</t>
+          <t>0,06; 7,79</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>4,81; 12,29</t>
+          <t>4,71; 12,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,68</t>
+          <t>0,86; 8,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,86</t>
+          <t>5,5; 11,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,64</t>
+          <t>7,37; 12,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 7,34</t>
+          <t>-32,71; 7,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>11,49; 23,82</t>
+          <t>11,52; 24,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,16; 22,92</t>
+          <t>9,65; 22,84</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 13,1</t>
+          <t>-63,58; 13,07</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,03; 10,01</t>
+          <t>0,12; 10,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,03; 16,0</t>
+          <t>5,86; 15,79</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,27</t>
+          <t>1,04; 11,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,38</t>
+          <t>7,06; 14,83</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,98</t>
+          <t>9,45; 17,14</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,92; 9,66</t>
+          <t>-42,49; 9,68</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,52</t>
+          <t>-1,08; 3,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,41</t>
+          <t>10,82; 15,61</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -3,98</t>
+          <t>-20,79; -3,97</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,91</t>
+          <t>3,04; 7,91</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,03</t>
+          <t>12,67; 17,11</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 5,47</t>
+          <t>-6,84; 4,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,08</t>
+          <t>1,92; 5,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,65</t>
+          <t>12,5; 15,69</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,11</t>
+          <t>-11,64; -1,96</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 5,88</t>
+          <t>-1,76; 6,13</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,05</t>
+          <t>17,41; 26,34</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-35,55; -6,56</t>
+          <t>-34,38; -6,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,07</t>
+          <t>4,84; 13,22</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,5</t>
+          <t>20,23; 28,42</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,12</t>
+          <t>-11,06; 7,1</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,43</t>
+          <t>3,11; 8,48</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,0</t>
+          <t>20,15; 26,15</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -3,45</t>
+          <t>-19,03; -3,2</t>
         </is>
       </c>
     </row>
